--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 18960-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 18960-2021.xlsx", "A 18960-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 18960-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 18960-2021.png", "A 18960-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 18960-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 18960-2021.docx", "A 18960-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 18960-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 18960-2021.docx", "A 18960-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 18960-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 18960-2021.docx", "A 18960-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 18960-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 18960-2021.docx", "A 18960-2021")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,27 +718,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 59299-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 59299-2018.xlsx", "A 59299-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 59299-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 59299-2018.png", "A 59299-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 59299-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 59299-2018.docx", "A 59299-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 59299-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 59299-2018.docx", "A 59299-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 59299-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 59299-2018.docx", "A 59299-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 59299-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 59299-2018.docx", "A 59299-2018")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 18959-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 18959-2021.xlsx", "A 18959-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 18959-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 18959-2021.png", "A 18959-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 18959-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 18959-2021.docx", "A 18959-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 18959-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 18959-2021.docx", "A 18959-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 18959-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 18959-2021.docx", "A 18959-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 18959-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 18959-2021.docx", "A 18959-2021")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -889,27 +889,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 39453-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 39453-2018.xlsx", "A 39453-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 39453-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 39453-2018.png", "A 39453-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 39453-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 39453-2018.docx", "A 39453-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 39453-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 39453-2018.docx", "A 39453-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 39453-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 39453-2018.docx", "A 39453-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 39453-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 39453-2018.docx", "A 39453-2018")</f>
         <v/>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 59844-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 59844-2018.xlsx", "A 59844-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 59844-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 59844-2018.png", "A 59844-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 59844-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 59844-2018.docx", "A 59844-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 59844-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 59844-2018.docx", "A 59844-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 59844-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 59844-2018.docx", "A 59844-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 59844-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 59844-2018.docx", "A 59844-2018")</f>
         <v/>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,27 +1064,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 65143-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 65143-2019.xlsx", "A 65143-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 65143-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 65143-2019.png", "A 65143-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 65143-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 65143-2019.docx", "A 65143-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 65143-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 65143-2019.docx", "A 65143-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 65143-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 65143-2019.docx", "A 65143-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 65143-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 65143-2019.docx", "A 65143-2019")</f>
         <v/>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1149,31 +1149,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 37936-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 37936-2021.xlsx", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 37936-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 37936-2021.png", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/knärot/A 37936-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/knärot/A 37936-2021.png", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 37936-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 37936-2021.docx", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 37936-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 37936-2021.docx", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 37936-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 37936-2021.docx", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 37936-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 37936-2021.docx", "A 37936-2021")</f>
         <v/>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1238,31 +1238,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 45975-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/artfynd/A 45975-2022.xlsx", "A 45975-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 45975-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/kartor/A 45975-2022.png", "A 45975-2022")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/knärot/A 45975-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/knärot/A 45975-2022.png", "A 45975-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 45975-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomål/A 45975-2022.docx", "A 45975-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 45975-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/klagomålsmail/A 45975-2022.docx", "A 45975-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 45975-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsyn/A 45975-2022.docx", "A 45975-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 45975-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LESSEBO/tillsynsmail/A 45975-2022.docx", "A 45975-2022")</f>
         <v/>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -572,7 +572,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43411</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44308</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43342</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43419</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43802</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43416</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43416</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43433</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>43448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43488</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43498</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43526</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43633</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43643</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43648</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43650</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43650</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43650</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43654</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43675</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43676</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43676</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43689</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43691</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43790</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43920</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43936</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43938</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43962</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43964</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43974</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43990</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43998</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43998</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44061</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44067</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44067</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44077</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44084</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44098</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44165</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>44166</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44172</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44172</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44172</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44174</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44175</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44200</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44200</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44218</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44314</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44468</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44510</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44586</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44589</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44630</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44657</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44708</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44743</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>44798</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44865</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>44865</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44869</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44869</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44869</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45016</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45017</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45017</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45058</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45058</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>45075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45097</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45097</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45097</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45104</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45106</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45126</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45139</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
